--- a/biology/Botanique/Maury_(AOC)/Maury_(AOC).xlsx
+++ b/biology/Botanique/Maury_(AOC)/Maury_(AOC).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le maury[1] est un vin d'appellation d'origine contrôlée produit autour de Maury, au nord-ouest de Perpignan dans le département français des Pyrénées-Orientales, en région Occitanie. Il est principalement connu comme vin doux naturel, mais il existe aussi un maury rouge en vin tranquille sec.
+Le maury est un vin d'appellation d'origine contrôlée produit autour de Maury, au nord-ouest de Perpignan dans le département français des Pyrénées-Orientales, en région Occitanie. Il est principalement connu comme vin doux naturel, mais il existe aussi un maury rouge en vin tranquille sec.
 </t>
         </is>
       </c>
@@ -514,12 +526,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période médiévale
-Des vestiges de fermes occupées par les Templiers dans un premier temps et par l'ordre des Chevaliers de Saint-Georges ensuite montrent l'intérêt suscité par ce terroir particulier pour la culture de la vigne.
+          <t>Période médiévale</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des vestiges de fermes occupées par les Templiers dans un premier temps et par l'ordre des Chevaliers de Saint-Georges ensuite montrent l'intérêt suscité par ce terroir particulier pour la culture de la vigne.
 Le maury fait partie des grands vins doux naturels dont l'origine remonterait au XIIIe siècle. En 1299, Arnaud de Villeneuve, médecin à la Cour du roi d'Aragon, professeur à la Faculté de médecine de Montpellier et alchimiste, connaissait déjà la distillation du vin mise au point par les Arabes pour produire de l'alcool. Cet « esprit de vin » mélangé à du moût en fermentation, arrêtait celle-ci et stabilisait le vin contenant encore des sucres non fermentés, obtenant ainsi un vin doux naturel.
-Période moderne
-Pendant la Révolution française, cette région obtient des dérogations pour la culture de la vigne. Le premier cadastre, datant de 1820, indique la présence de 1 100 hectares de vigne sur la commune de Maury.
-Maury est un terroir pour les vins doux naturels dont la spécificité a été reconnue dès 1872 par l'Assemblée nationale, qui leur attribue un statut particulier en leur octroyant des droits d'accises spéciaux (taxes sur l'alcool) en reconnaissance de leurs contraintes naturelles de production.
 </t>
         </is>
       </c>
@@ -545,54 +559,61 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Période moderne</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pendant la Révolution française, cette région obtient des dérogations pour la culture de la vigne. Le premier cadastre, datant de 1820, indique la présence de 1 100 hectares de vigne sur la commune de Maury.
+Maury est un terroir pour les vins doux naturels dont la spécificité a été reconnue dès 1872 par l'Assemblée nationale, qui leur attribue un statut particulier en leur octroyant des droits d'accises spéciaux (taxes sur l'alcool) en reconnaissance de leurs contraintes naturelles de production.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Période contemporaine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les vendanges 1906 avaient été désastreuses dans tout le Roussillon. Ce qui n'empêchaient pas la chute des cours du vin. Des familles vigneronnes se heurtaient à des difficultés financières telles qu'elles ne pouvaient plus payer l'impôt. Informé, le gouvernement donna ordre de faire intervenir les huissiers. Le village de Baixas fut le premier à se révolter au début de l'année 1907[4].
-Le 18 février, il reçut le soutien de Marcelin Albert, qui envoya un télégramme à Georges Clemenceau. Quant à Joseph Tarrius, viticulteur et pharmacien à Baixas, il fait parvenir au gouvernement une pétition signée des habitants du village. Il y est précisé que le seul impôt que les contribuables puissent encore payer est celui du sang. Alors que les défilés de protestations s'étaient multipliés dans les villes et villages, préfectures et sous-préfectures accueillirent les manifestations viticoles. Le 19 mai, à Perpignan 170 à 200 000 personnes défilent dans la ville. La manifestation se déroule sans incidents graves[5],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vendanges 1906 avaient été désastreuses dans tout le Roussillon. Ce qui n'empêchaient pas la chute des cours du vin. Des familles vigneronnes se heurtaient à des difficultés financières telles qu'elles ne pouvaient plus payer l'impôt. Informé, le gouvernement donna ordre de faire intervenir les huissiers. Le village de Baixas fut le premier à se révolter au début de l'année 1907.
+Le 18 février, il reçut le soutien de Marcelin Albert, qui envoya un télégramme à Georges Clemenceau. Quant à Joseph Tarrius, viticulteur et pharmacien à Baixas, il fait parvenir au gouvernement une pétition signée des habitants du village. Il y est précisé que le seul impôt que les contribuables puissent encore payer est celui du sang. Alors que les défilés de protestations s'étaient multipliés dans les villes et villages, préfectures et sous-préfectures accueillirent les manifestations viticoles. Le 19 mai, à Perpignan 170 à 200 000 personnes défilent dans la ville. La manifestation se déroule sans incidents graves,.
 			Vignoble de Maury
 			Regroupement des manifestants aux Platanes
 			Le comité d'Argeliers prend la tête de la manifestation
 			À Perpignan, les commerçants aux côtés des viticulteurs
 			Les manifestants devant le Castillet
-Dans les départements du Gard, de l'Hérault, de l'Aude et des Pyrénées-Orientales, les conseils municipaux démissionnent collectivement - il y en aura jusqu'à 600 - certains appellent à la grève de l'impôt. La situation devient de plus en plus tendue, les viticulteurs furieux attaquent perceptions, préfectures et sous-préfectures[6]. Le 20 juin, la tension monte encore. À Perpignan, la préfecture est pillée et incendiée. Le préfet David Dautresme doit se réfugier sur le toit[5].
+Dans les départements du Gard, de l'Hérault, de l'Aude et des Pyrénées-Orientales, les conseils municipaux démissionnent collectivement - il y en aura jusqu'à 600 - certains appellent à la grève de l'impôt. La situation devient de plus en plus tendue, les viticulteurs furieux attaquent perceptions, préfectures et sous-préfectures. Le 20 juin, la tension monte encore. À Perpignan, la préfecture est pillée et incendiée. Le préfet David Dautresme doit se réfugier sur le toit.
 Maury accède à l'appellation d'origine contrôlée le 6 août 1936.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Maury_(AOC)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maury_(AOC)</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Situation géographique</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les vins de Maury sont issus d'un petit vignoble de 17 km de longueur sur 3 km de largeur abrité au nord par les Corbières catalanes et au sud par les contreforts des Pyrénées, dominé par la forteresse de Quéribus : communes de Maury, Tautavel, Saint-Paul-de-Fenouillet et Rasiguères.
-Géologie
-Schistes noirs de l'aptien non-métamorphiques et souvent décomposés sur Maury, calcaires sur le piémont des Corbières.
-Climatologie</t>
         </is>
       </c>
     </row>
@@ -617,18 +638,162 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les vins de Maury sont issus d'un petit vignoble de 17 km de longueur sur 3 km de largeur abrité au nord par les Corbières catalanes et au sud par les contreforts des Pyrénées, dominé par la forteresse de Quéribus : communes de Maury, Tautavel, Saint-Paul-de-Fenouillet et Rasiguères.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Situation géographique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Géologie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Schistes noirs de l'aptien non-métamorphiques et souvent décomposés sur Maury, calcaires sur le piémont des Corbières.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Vignoble</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Encépagement
-Les maury rouges sont issus principalement du grenache N, complété par le grenache blanc B, le grenache gris G et accessoirement le carignan N, le macabeu B et la syrah N.
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Encépagement</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les maury rouges sont issus principalement du grenache N, complété par le grenache blanc B, le grenache gris G et accessoirement le carignan N, le macabeu B et la syrah N.
 Les maury blancs sont issus principalement du grenache blanc B, du grenache gris G, du macabeu B, du tourbat B (dénommé localement malvoisie du Roussillon), accessoirement par du muscat à petits grains blancs B et du muscat d'Alexandrie B (dénommé localement muscat romain).
-Rendements
-Le rendement est de 30 hl par hectare (maximum de 40 hl/ha autorisé par l'appellation, mais seulement 30 ha peuvent être mutés).
-Vinification
-Le maury rouge est obtenu par mutage sur grain en cours de fermentation. Les vins blancs par mutage sur moût (sur jus)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rendements</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le rendement est de 30 hl par hectare (maximum de 40 hl/ha autorisé par l'appellation, mais seulement 30 ha peuvent être mutés).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Vignoble</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Vinification</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le maury rouge est obtenu par mutage sur grain en cours de fermentation. Les vins blancs par mutage sur moût (sur jus)
 Les vins sont obtenus à partir de moûts présentant une richesse naturelle minimale en sucres de 252 grammes par litre.
 Le mutage est réalisé par apport d'alcool neutre vinique titrant au minimum 96 % vol., dans la limite, évaluée en alcool pur, de 5 % minimum et 10 % maximum du volume du moût mis en œuvre.
 L'opération de mutage est effectuée avant le 31 décembre de l'année de la récolte.
@@ -636,64 +801,68 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Maury_(AOC)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maury_(AOC)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Vins</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Comparable au banyuls, le maury VDN est cependant plus tannique et plus robuste.
 Du fait de leur mutage en cours de fermentation, les vins conservent une bonne partie de leurs sucres naturels et peuvent atteindre un degré d'alcool compris entre 15 et 18 degrés au maximum (normes légales).
-Le Maury (vin sec) a obtenu l'AOC à partir du millésime 2011. Selon le site des Vins du Roussillon : « Sombres, riches, puissants et très aromatiques, les Maury Secs se caractérisent par des notes de fruits noirs et garrigue. Ils se distinguent en bouche par un beau volume et un bel enrobage de tanins confortés par une période minimale d’élevage. Leur bonne structure et l’équilibre dont ils témoignent leur assurent un très bon vieillissement »[7].
+Le Maury (vin sec) a obtenu l'AOC à partir du millésime 2011. Selon le site des Vins du Roussillon : « Sombres, riches, puissants et très aromatiques, les Maury Secs se caractérisent par des notes de fruits noirs et garrigue. Ils se distinguent en bouche par un beau volume et un bel enrobage de tanins confortés par une période minimale d’élevage. Leur bonne structure et l’équilibre dont ils témoignent leur assurent un très bon vieillissement ».
 </t>
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Maury_(AOC)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Maury_(AOC)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Maury_(AOC)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
